--- a/biology/Médecine/Frederick_Pei_Li/Frederick_Pei_Li.xlsx
+++ b/biology/Médecine/Frederick_Pei_Li/Frederick_Pei_Li.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Frederick Pei Li, né le 7 mai 1940  à Canton en Chine, et mort le 10 juin 2015[1], est un médecin américain.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Frederick Pei Li, né le 7 mai 1940  à Canton en Chine, et mort le 10 juin 2015, est un médecin américain.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né en Chine, Frederick Pei Li est arrivé à New York où ses parents avaient un restaurant chinois. Il a reçu un Bachelor of Arts en physique à l'université de New York et le titre de docteur en médecine à l'université de Rochester, puis un Master's degree en démographie à l'université de Georgetown. En 1967, il rejoint la section épidémiologie du National Cancer Institute. Il y a travaillé 24 ans durant, le plus souvent au centre « de terrain » du NCI au Dana–Farber Cancer Institute (en) à Boston. En 1991, il devient le chef du département d'épidémiologie et de contrôle du cancer au « Dana-Farber » (Dana-Farber's Division of Cancer Epidemiology and Control). 
 Frederick Pei Li est professeur d'épidémiologie clinique du cancer à la faculté de médecine d'Harvard, professeur de médecine de cette même école et professeur au Harry and Elsa Jiler American Cancer Society Clinical Research. 
